--- a/ClosedXML.Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.580577" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.269228" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.080586" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.881643" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="24.717452" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.200365" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.132422" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.535299" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.150872" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.184235" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.88935" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="24.763498" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.184235" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.236589" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
